--- a/INTLINE/data/134/IFO/ifo Employment Barometer for Germany.xlsx
+++ b/INTLINE/data/134/IFO/ifo Employment Barometer for Germany.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Beschäftigungsklima\BESCHÄFTIGUNGSKLIMA\BB_2022\März_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Beschäftigungsklima\BESCHÄFTIGUNGSKLIMA\BB_2022\Mai_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="375" windowWidth="14130" windowHeight="11130"/>
+    <workbookView xWindow="2300" yWindow="380" windowWidth="14130" windowHeight="11130"/>
   </bookViews>
   <sheets>
     <sheet name="ifo Beschäftigungsbarometer" sheetId="1" r:id="rId1"/>
@@ -527,19 +527,19 @@
   <dimension ref="A1:F263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E258" sqref="E258"/>
+      <pane ySplit="9" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K255" sqref="K255"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
-    <col min="2" max="2" width="14.5703125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="6"/>
+    <col min="2" max="2" width="14.54296875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -549,12 +549,12 @@
       <c r="E1" s="3"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -564,7 +564,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="23"/>
       <c r="C4" s="13"/>
@@ -572,7 +572,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -582,7 +582,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="23"/>
       <c r="C6" s="13"/>
@@ -590,7 +590,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -600,7 +600,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="23"/>
       <c r="C8" s="13"/>
@@ -608,7 +608,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
@@ -625,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>37287</v>
       </c>
@@ -639,13 +639,13 @@
         <v>-45.4</v>
       </c>
       <c r="E10" s="15">
-        <v>-21.56</v>
+        <v>-21.55</v>
       </c>
       <c r="F10" s="15">
         <v>2.03579</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>37315</v>
       </c>
@@ -659,13 +659,13 @@
         <v>-37.21</v>
       </c>
       <c r="E11" s="15">
-        <v>-22.64</v>
+        <v>-22.63</v>
       </c>
       <c r="F11" s="15">
         <v>1.48963</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>37346</v>
       </c>
@@ -679,13 +679,13 @@
         <v>-34.39</v>
       </c>
       <c r="E12" s="15">
-        <v>-19.72</v>
+        <v>-19.71</v>
       </c>
       <c r="F12" s="15">
         <v>1.88289</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>37376</v>
       </c>
@@ -699,13 +699,13 @@
         <v>-38.29</v>
       </c>
       <c r="E13" s="15">
-        <v>-22.72</v>
+        <v>-22.71</v>
       </c>
       <c r="F13" s="15">
         <v>0.14252000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>37407</v>
       </c>
@@ -719,13 +719,13 @@
         <v>-36.770000000000003</v>
       </c>
       <c r="E14" s="15">
-        <v>-22.55</v>
+        <v>-22.54</v>
       </c>
       <c r="F14" s="15">
         <v>0.83250999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>37437</v>
       </c>
@@ -739,13 +739,13 @@
         <v>-35.590000000000003</v>
       </c>
       <c r="E15" s="15">
-        <v>-25.6</v>
+        <v>-25.58</v>
       </c>
       <c r="F15" s="15">
         <v>-3.8191799999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>37468</v>
       </c>
@@ -759,13 +759,13 @@
         <v>-37.22</v>
       </c>
       <c r="E16" s="15">
-        <v>-27.11</v>
+        <v>-27.09</v>
       </c>
       <c r="F16" s="15">
         <v>-7.0044300000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>37499</v>
       </c>
@@ -779,13 +779,13 @@
         <v>-35.909999999999997</v>
       </c>
       <c r="E17" s="15">
-        <v>-27.08</v>
+        <v>-27.07</v>
       </c>
       <c r="F17" s="15">
         <v>-8.28355</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>37529</v>
       </c>
@@ -799,13 +799,13 @@
         <v>-32.700000000000003</v>
       </c>
       <c r="E18" s="15">
-        <v>-28.15</v>
+        <v>-28.13</v>
       </c>
       <c r="F18" s="15">
         <v>-2.6791</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>37560</v>
       </c>
@@ -819,13 +819,13 @@
         <v>-36.53</v>
       </c>
       <c r="E19" s="15">
-        <v>-28.85</v>
+        <v>-28.94</v>
       </c>
       <c r="F19" s="15">
         <v>-9.79861</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>37590</v>
       </c>
@@ -839,13 +839,13 @@
         <v>-40.82</v>
       </c>
       <c r="E20" s="15">
-        <v>-30.49</v>
+        <v>-30.54</v>
       </c>
       <c r="F20" s="15">
         <v>-4.7623899999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>37621</v>
       </c>
@@ -859,13 +859,13 @@
         <v>-44.79</v>
       </c>
       <c r="E21" s="15">
-        <v>-34.53</v>
+        <v>-34.51</v>
       </c>
       <c r="F21" s="15">
         <v>-4.8138100000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>37652</v>
       </c>
@@ -879,13 +879,13 @@
         <v>-46.18</v>
       </c>
       <c r="E22" s="15">
-        <v>-32.56</v>
+        <v>-32.549999999999997</v>
       </c>
       <c r="F22" s="15">
         <v>-3.01389</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>37680</v>
       </c>
@@ -899,13 +899,13 @@
         <v>-40.61</v>
       </c>
       <c r="E23" s="15">
-        <v>-32.64</v>
+        <v>-32.630000000000003</v>
       </c>
       <c r="F23" s="15">
         <v>-8.5595700000000008</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>37711</v>
       </c>
@@ -919,13 +919,13 @@
         <v>-39.76</v>
       </c>
       <c r="E24" s="15">
-        <v>-28.72</v>
+        <v>-28.71</v>
       </c>
       <c r="F24" s="15">
         <v>-5.6948699999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>37741</v>
       </c>
@@ -939,13 +939,13 @@
         <v>-35.630000000000003</v>
       </c>
       <c r="E25" s="15">
-        <v>-26.72</v>
+        <v>-26.71</v>
       </c>
       <c r="F25" s="15">
         <v>-3.8388599999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>37772</v>
       </c>
@@ -959,13 +959,13 @@
         <v>-36.409999999999997</v>
       </c>
       <c r="E26" s="15">
-        <v>-25.55</v>
+        <v>-25.54</v>
       </c>
       <c r="F26" s="15">
         <v>-11.172560000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>37802</v>
       </c>
@@ -979,13 +979,13 @@
         <v>-36.700000000000003</v>
       </c>
       <c r="E27" s="15">
-        <v>-25.6</v>
+        <v>-25.58</v>
       </c>
       <c r="F27" s="15">
         <v>-8.8191799999999994</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>37833</v>
       </c>
@@ -999,13 +999,13 @@
         <v>-37.14</v>
       </c>
       <c r="E28" s="15">
-        <v>-27.11</v>
+        <v>-27.09</v>
       </c>
       <c r="F28" s="15">
         <v>-4.01058</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>37864</v>
       </c>
@@ -1019,13 +1019,13 @@
         <v>-35.31</v>
       </c>
       <c r="E29" s="15">
-        <v>-24.08</v>
+        <v>-24.07</v>
       </c>
       <c r="F29" s="15">
         <v>0.69843</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>37894</v>
       </c>
@@ -1039,13 +1039,13 @@
         <v>-33.799999999999997</v>
       </c>
       <c r="E30" s="15">
-        <v>-21.15</v>
+        <v>-21.13</v>
       </c>
       <c r="F30" s="15">
         <v>0.30882999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>37925</v>
       </c>
@@ -1059,13 +1059,13 @@
         <v>-37.6</v>
       </c>
       <c r="E31" s="15">
-        <v>-21.85</v>
+        <v>-21.94</v>
       </c>
       <c r="F31" s="15">
         <v>-1.8103800000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>37955</v>
       </c>
@@ -1079,13 +1079,13 @@
         <v>-35.4</v>
       </c>
       <c r="E32" s="15">
-        <v>-18.489999999999998</v>
+        <v>-18.54</v>
       </c>
       <c r="F32" s="15">
         <v>0.17036000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>37986</v>
       </c>
@@ -1099,13 +1099,13 @@
         <v>-39.229999999999997</v>
       </c>
       <c r="E33" s="15">
-        <v>-18.53</v>
+        <v>-18.510000000000002</v>
       </c>
       <c r="F33" s="15">
         <v>-0.81401000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>38017</v>
       </c>
@@ -1119,13 +1119,13 @@
         <v>-33.35</v>
       </c>
       <c r="E34" s="15">
-        <v>-16.559999999999999</v>
+        <v>-16.55</v>
       </c>
       <c r="F34" s="15">
         <v>-6.3450300000000004</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>38046</v>
       </c>
@@ -1139,13 +1139,13 @@
         <v>-31.89</v>
       </c>
       <c r="E35" s="15">
-        <v>-16.64</v>
+        <v>-16.63</v>
       </c>
       <c r="F35" s="15">
         <v>-3.0143</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>38077</v>
       </c>
@@ -1159,13 +1159,13 @@
         <v>-33.01</v>
       </c>
       <c r="E36" s="15">
-        <v>-17.72</v>
+        <v>-17.71</v>
       </c>
       <c r="F36" s="15">
         <v>-5.8155099999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>38107</v>
       </c>
@@ -1179,13 +1179,13 @@
         <v>-32.590000000000003</v>
       </c>
       <c r="E37" s="15">
-        <v>-16.72</v>
+        <v>-16.71</v>
       </c>
       <c r="F37" s="15">
         <v>-5.83141</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>38138</v>
       </c>
@@ -1199,13 +1199,13 @@
         <v>-35</v>
       </c>
       <c r="E38" s="15">
-        <v>-14.55</v>
+        <v>-14.54</v>
       </c>
       <c r="F38" s="15">
         <v>-0.18271999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>38168</v>
       </c>
@@ -1219,13 +1219,13 @@
         <v>-32.770000000000003</v>
       </c>
       <c r="E39" s="15">
-        <v>-17.600000000000001</v>
+        <v>-17.579999999999998</v>
       </c>
       <c r="F39" s="15">
         <v>-3.8252999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>38199</v>
       </c>
@@ -1239,13 +1239,13 @@
         <v>-34.07</v>
       </c>
       <c r="E40" s="15">
-        <v>-17.11</v>
+        <v>-17.09</v>
       </c>
       <c r="F40" s="15">
         <v>-2.9921199999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>38230</v>
       </c>
@@ -1259,13 +1259,13 @@
         <v>-35.57</v>
       </c>
       <c r="E41" s="15">
-        <v>-17.079999999999998</v>
+        <v>-17.07</v>
       </c>
       <c r="F41" s="15">
         <v>-2.3075700000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>38260</v>
       </c>
@@ -1279,18 +1279,18 @@
         <v>-38.57</v>
       </c>
       <c r="E42" s="15">
-        <v>-15.15</v>
+        <v>-15.13</v>
       </c>
       <c r="F42" s="15">
         <v>-2.6972</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>38291</v>
       </c>
       <c r="B43" s="25">
-        <v>93.4</v>
+        <v>93.3</v>
       </c>
       <c r="C43" s="15">
         <v>-13.66</v>
@@ -1299,13 +1299,13 @@
         <v>-37.86</v>
       </c>
       <c r="E43" s="15">
-        <v>-16.850000000000001</v>
+        <v>-16.940000000000001</v>
       </c>
       <c r="F43" s="15">
         <v>1.1896199999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>38321</v>
       </c>
@@ -1319,13 +1319,13 @@
         <v>-36.04</v>
       </c>
       <c r="E44" s="15">
-        <v>-17.489999999999998</v>
+        <v>-17.54</v>
       </c>
       <c r="F44" s="15">
         <v>0.18071000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>38352</v>
       </c>
@@ -1339,13 +1339,13 @@
         <v>-39.4</v>
       </c>
       <c r="E45" s="15">
-        <v>-14.53</v>
+        <v>-14.51</v>
       </c>
       <c r="F45" s="15">
         <v>-0.81394</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>38383</v>
       </c>
@@ -1359,13 +1359,13 @@
         <v>-36.11</v>
       </c>
       <c r="E46" s="15">
-        <v>-13.56</v>
+        <v>-13.55</v>
       </c>
       <c r="F46" s="15">
-        <v>-2.35</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-2.33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>38411</v>
       </c>
@@ -1379,13 +1379,13 @@
         <v>-36.090000000000003</v>
       </c>
       <c r="E47" s="15">
-        <v>-15.64</v>
+        <v>-15.63</v>
       </c>
       <c r="F47" s="15">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>38442</v>
       </c>
@@ -1399,13 +1399,13 @@
         <v>-34.97</v>
       </c>
       <c r="E48" s="15">
-        <v>-16.72</v>
+        <v>-16.71</v>
       </c>
       <c r="F48" s="15">
-        <v>-1.84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-1.83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>38472</v>
       </c>
@@ -1419,18 +1419,18 @@
         <v>-29.99</v>
       </c>
       <c r="E49" s="15">
-        <v>-14.72</v>
+        <v>-14.71</v>
       </c>
       <c r="F49" s="15">
-        <v>-4.76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-4.74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>38503</v>
       </c>
       <c r="B50" s="25">
-        <v>92.8</v>
+        <v>92.9</v>
       </c>
       <c r="C50" s="15">
         <v>-17.39</v>
@@ -1439,13 +1439,13 @@
         <v>-28.32</v>
       </c>
       <c r="E50" s="15">
-        <v>-14.55</v>
+        <v>-14.54</v>
       </c>
       <c r="F50" s="15">
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>38533</v>
       </c>
@@ -1459,13 +1459,13 @@
         <v>-28.8</v>
       </c>
       <c r="E51" s="15">
-        <v>-12.6</v>
+        <v>-12.58</v>
       </c>
       <c r="F51" s="15">
-        <v>-4.43</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-4.42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="10">
         <v>38564</v>
       </c>
@@ -1479,18 +1479,18 @@
         <v>-28.18</v>
       </c>
       <c r="E52" s="15">
-        <v>-16.11</v>
+        <v>-16.09</v>
       </c>
       <c r="F52" s="15">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10">
         <v>38595</v>
       </c>
       <c r="B53" s="25">
-        <v>91.7</v>
+        <v>91.8</v>
       </c>
       <c r="C53" s="15">
         <v>-14.73</v>
@@ -1499,13 +1499,13 @@
         <v>-27.46</v>
       </c>
       <c r="E53" s="15">
-        <v>-14.08</v>
+        <v>-14.07</v>
       </c>
       <c r="F53" s="15">
-        <v>-6.24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-6.22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>38625</v>
       </c>
@@ -1519,18 +1519,18 @@
         <v>-22.85</v>
       </c>
       <c r="E54" s="15">
-        <v>-12.15</v>
+        <v>-12.13</v>
       </c>
       <c r="F54" s="15">
-        <v>-0.75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-0.74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>38656</v>
       </c>
       <c r="B55" s="25">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="C55" s="15">
         <v>-10.9</v>
@@ -1539,13 +1539,13 @@
         <v>-23.43</v>
       </c>
       <c r="E55" s="15">
-        <v>-10.85</v>
+        <v>-10.94</v>
       </c>
       <c r="F55" s="15">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>38686</v>
       </c>
@@ -1559,13 +1559,13 @@
         <v>-25.32</v>
       </c>
       <c r="E56" s="15">
-        <v>-13.49</v>
+        <v>-13.54</v>
       </c>
       <c r="F56" s="15">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>38717</v>
       </c>
@@ -1579,13 +1579,13 @@
         <v>-29.07</v>
       </c>
       <c r="E57" s="15">
-        <v>-10.53</v>
+        <v>-10.51</v>
       </c>
       <c r="F57" s="15">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>38748</v>
       </c>
@@ -1599,13 +1599,13 @@
         <v>-21.28</v>
       </c>
       <c r="E58" s="15">
-        <v>-6.56</v>
+        <v>-6.55</v>
       </c>
       <c r="F58" s="15">
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>38776</v>
       </c>
@@ -1619,13 +1619,13 @@
         <v>-11.37</v>
       </c>
       <c r="E59" s="15">
-        <v>-3.64</v>
+        <v>-3.63</v>
       </c>
       <c r="F59" s="15">
-        <v>9.42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
         <v>38807</v>
       </c>
@@ -1639,13 +1639,13 @@
         <v>-9.7100000000000009</v>
       </c>
       <c r="E60" s="15">
-        <v>-7.72</v>
+        <v>-7.71</v>
       </c>
       <c r="F60" s="15">
-        <v>8.16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
         <v>38837</v>
       </c>
@@ -1659,13 +1659,13 @@
         <v>-8.68</v>
       </c>
       <c r="E61" s="15">
-        <v>-3.72</v>
+        <v>-3.71</v>
       </c>
       <c r="F61" s="15">
-        <v>11.24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="10">
         <v>38868</v>
       </c>
@@ -1679,13 +1679,13 @@
         <v>-8.26</v>
       </c>
       <c r="E62" s="15">
-        <v>-7.55</v>
+        <v>-7.54</v>
       </c>
       <c r="F62" s="15">
-        <v>10.25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="10">
         <v>38898</v>
       </c>
@@ -1699,13 +1699,13 @@
         <v>-10.67</v>
       </c>
       <c r="E63" s="15">
-        <v>-4.5999999999999996</v>
+        <v>-4.58</v>
       </c>
       <c r="F63" s="15">
-        <v>11.57</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>38929</v>
       </c>
@@ -1719,13 +1719,13 @@
         <v>-8.3699999999999992</v>
       </c>
       <c r="E64" s="15">
-        <v>-6.11</v>
+        <v>-6.09</v>
       </c>
       <c r="F64" s="15">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>38960</v>
       </c>
@@ -1739,13 +1739,13 @@
         <v>-7.25</v>
       </c>
       <c r="E65" s="15">
-        <v>-5.08</v>
+        <v>-5.07</v>
       </c>
       <c r="F65" s="15">
-        <v>4.76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>38990</v>
       </c>
@@ -1759,13 +1759,13 @@
         <v>-8.0500000000000007</v>
       </c>
       <c r="E66" s="15">
-        <v>-2.15</v>
+        <v>-2.13</v>
       </c>
       <c r="F66" s="15">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="10">
         <v>39021</v>
       </c>
@@ -1779,13 +1779,13 @@
         <v>-8.2200000000000006</v>
       </c>
       <c r="E67" s="15">
-        <v>-0.85</v>
+        <v>-0.94</v>
       </c>
       <c r="F67" s="15">
-        <v>9.06</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>39051</v>
       </c>
@@ -1799,13 +1799,13 @@
         <v>-6.96</v>
       </c>
       <c r="E68" s="15">
-        <v>-0.49</v>
+        <v>-0.54</v>
       </c>
       <c r="F68" s="15">
-        <v>12.73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
         <v>39082</v>
       </c>
@@ -1819,13 +1819,13 @@
         <v>-6.32</v>
       </c>
       <c r="E69" s="15">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="F69" s="15">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>39113</v>
       </c>
@@ -1839,13 +1839,13 @@
         <v>-5.33</v>
       </c>
       <c r="E70" s="15">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="F70" s="15">
-        <v>10.65</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
         <v>39141</v>
       </c>
@@ -1859,13 +1859,13 @@
         <v>-7.76</v>
       </c>
       <c r="E71" s="15">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="F71" s="15">
-        <v>12.42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>39172</v>
       </c>
@@ -1879,13 +1879,13 @@
         <v>-8.52</v>
       </c>
       <c r="E72" s="15">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F72" s="15">
-        <v>13.16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>39202</v>
       </c>
@@ -1899,13 +1899,13 @@
         <v>-10.94</v>
       </c>
       <c r="E73" s="15">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="F73" s="15">
-        <v>9.24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>39233</v>
       </c>
@@ -1919,13 +1919,13 @@
         <v>-9.9</v>
       </c>
       <c r="E74" s="15">
-        <v>2.4500000000000002</v>
+        <v>2.46</v>
       </c>
       <c r="F74" s="15">
-        <v>10.25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="10">
         <v>39263</v>
       </c>
@@ -1939,13 +1939,13 @@
         <v>-8.41</v>
       </c>
       <c r="E75" s="15">
-        <v>-0.6</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="F75" s="15">
-        <v>12.57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="10">
         <v>39294</v>
       </c>
@@ -1959,13 +1959,13 @@
         <v>-9.48</v>
       </c>
       <c r="E76" s="15">
-        <v>-1.1100000000000001</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="F76" s="15">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="10">
         <v>39325</v>
       </c>
@@ -1979,13 +1979,13 @@
         <v>-7.93</v>
       </c>
       <c r="E77" s="15">
-        <v>-1.08</v>
+        <v>-1.07</v>
       </c>
       <c r="F77" s="15">
-        <v>13.76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="10">
         <v>39355</v>
       </c>
@@ -1999,18 +1999,18 @@
         <v>-9.2200000000000006</v>
       </c>
       <c r="E78" s="15">
-        <v>-4.1500000000000004</v>
+        <v>-4.13</v>
       </c>
       <c r="F78" s="15">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="10">
         <v>39386</v>
       </c>
       <c r="B79" s="25">
-        <v>99.7</v>
+        <v>99.6</v>
       </c>
       <c r="C79" s="15">
         <v>3.79</v>
@@ -2019,13 +2019,13 @@
         <v>-7.2</v>
       </c>
       <c r="E79" s="15">
-        <v>-5.85</v>
+        <v>-5.94</v>
       </c>
       <c r="F79" s="15">
-        <v>11.06</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
         <v>39416</v>
       </c>
@@ -2039,13 +2039,13 @@
         <v>-9.01</v>
       </c>
       <c r="E80" s="15">
-        <v>-0.49</v>
+        <v>-0.54</v>
       </c>
       <c r="F80" s="15">
-        <v>12.73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="10">
         <v>39447</v>
       </c>
@@ -2059,13 +2059,13 @@
         <v>-8.65</v>
       </c>
       <c r="E81" s="15">
-        <v>-4.53</v>
+        <v>-4.51</v>
       </c>
       <c r="F81" s="15">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="10">
         <v>39478</v>
       </c>
@@ -2079,13 +2079,13 @@
         <v>-6.3</v>
       </c>
       <c r="E82" s="15">
-        <v>-6.56</v>
+        <v>-6.55</v>
       </c>
       <c r="F82" s="15">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="10">
         <v>39507</v>
       </c>
@@ -2099,13 +2099,13 @@
         <v>-10.58</v>
       </c>
       <c r="E83" s="15">
-        <v>-3.64</v>
+        <v>-3.63</v>
       </c>
       <c r="F83" s="15">
-        <v>12.42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="10">
         <v>39538</v>
       </c>
@@ -2119,13 +2119,13 @@
         <v>-10.25</v>
       </c>
       <c r="E84" s="15">
-        <v>-1.72</v>
+        <v>-1.71</v>
       </c>
       <c r="F84" s="15">
-        <v>9.16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="10">
         <v>39568</v>
       </c>
@@ -2133,19 +2133,19 @@
         <v>99.2</v>
       </c>
       <c r="C85" s="15">
-        <v>1.1599999999999999</v>
+        <v>1.17</v>
       </c>
       <c r="D85" s="16">
         <v>-13.95</v>
       </c>
       <c r="E85" s="15">
-        <v>-2.72</v>
+        <v>-2.71</v>
       </c>
       <c r="F85" s="15">
-        <v>10.24</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="10">
         <v>39599</v>
       </c>
@@ -2159,13 +2159,13 @@
         <v>-6.22</v>
       </c>
       <c r="E86" s="15">
-        <v>-0.55000000000000004</v>
+        <v>-0.54</v>
       </c>
       <c r="F86" s="15">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="10">
         <v>39629</v>
       </c>
@@ -2179,13 +2179,13 @@
         <v>-8.15</v>
       </c>
       <c r="E87" s="15">
-        <v>-2.6</v>
+        <v>-2.58</v>
       </c>
       <c r="F87" s="15">
-        <v>7.57</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="10">
         <v>39660</v>
       </c>
@@ -2199,13 +2199,13 @@
         <v>-8.2799999999999994</v>
       </c>
       <c r="E88" s="15">
-        <v>-6.11</v>
+        <v>-6.09</v>
       </c>
       <c r="F88" s="15">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="10">
         <v>39691</v>
       </c>
@@ -2219,13 +2219,13 @@
         <v>-11.7</v>
       </c>
       <c r="E89" s="15">
-        <v>-8.08</v>
+        <v>-8.07</v>
       </c>
       <c r="F89" s="15">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="10">
         <v>39721</v>
       </c>
@@ -2239,13 +2239,13 @@
         <v>-11.54</v>
       </c>
       <c r="E90" s="15">
-        <v>-9.15</v>
+        <v>-9.1300000000000008</v>
       </c>
       <c r="F90" s="15">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>39752</v>
       </c>
@@ -2259,13 +2259,13 @@
         <v>-14.16</v>
       </c>
       <c r="E91" s="15">
-        <v>-6.85</v>
+        <v>-6.94</v>
       </c>
       <c r="F91" s="15">
-        <v>-1.94</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-2.06</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>39782</v>
       </c>
@@ -2279,13 +2279,13 @@
         <v>-14.06</v>
       </c>
       <c r="E92" s="15">
-        <v>-14.49</v>
+        <v>-14.54</v>
       </c>
       <c r="F92" s="15">
-        <v>-8.27</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>39813</v>
       </c>
@@ -2299,13 +2299,13 @@
         <v>-17.11</v>
       </c>
       <c r="E93" s="15">
-        <v>-17.53</v>
+        <v>-17.510000000000002</v>
       </c>
       <c r="F93" s="15">
-        <v>-9.5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-9.48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <v>39844</v>
       </c>
@@ -2319,13 +2319,13 @@
         <v>-19.34</v>
       </c>
       <c r="E94" s="15">
-        <v>-16.559999999999999</v>
+        <v>-16.55</v>
       </c>
       <c r="F94" s="15">
-        <v>-9.35</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-9.33</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>39872</v>
       </c>
@@ -2339,18 +2339,18 @@
         <v>-18.71</v>
       </c>
       <c r="E95" s="15">
-        <v>-17.64</v>
+        <v>-17.63</v>
       </c>
       <c r="F95" s="15">
-        <v>-11.58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-11.56</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>39903</v>
       </c>
       <c r="B96" s="25">
-        <v>87.4</v>
+        <v>87.5</v>
       </c>
       <c r="C96" s="15">
         <v>-39.94</v>
@@ -2359,13 +2359,13 @@
         <v>-18.87</v>
       </c>
       <c r="E96" s="15">
-        <v>-19.72</v>
+        <v>-19.71</v>
       </c>
       <c r="F96" s="15">
-        <v>-10.84</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-10.83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="10">
         <v>39933</v>
       </c>
@@ -2379,13 +2379,13 @@
         <v>-19.93</v>
       </c>
       <c r="E97" s="15">
-        <v>-19.72</v>
+        <v>-19.71</v>
       </c>
       <c r="F97" s="15">
-        <v>-8.76</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-8.74</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
         <v>39964</v>
       </c>
@@ -2399,13 +2399,13 @@
         <v>-20.5</v>
       </c>
       <c r="E98" s="15">
-        <v>-18.55</v>
+        <v>-18.54</v>
       </c>
       <c r="F98" s="15">
-        <v>-6.75</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-6.73</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="10">
         <v>39994</v>
       </c>
@@ -2419,13 +2419,13 @@
         <v>-17.82</v>
       </c>
       <c r="E99" s="15">
-        <v>-14.6</v>
+        <v>-14.58</v>
       </c>
       <c r="F99" s="15">
-        <v>-5.43</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-5.42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
         <v>40025</v>
       </c>
@@ -2439,13 +2439,13 @@
         <v>-15.93</v>
       </c>
       <c r="E100" s="15">
-        <v>-16.11</v>
+        <v>-16.09</v>
       </c>
       <c r="F100" s="15">
-        <v>-3.6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-3.58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
         <v>40056</v>
       </c>
@@ -2459,13 +2459,13 @@
         <v>-9.32</v>
       </c>
       <c r="E101" s="15">
-        <v>-13.08</v>
+        <v>-13.07</v>
       </c>
       <c r="F101" s="15">
-        <v>-2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
         <v>40086</v>
       </c>
@@ -2479,13 +2479,13 @@
         <v>-14.92</v>
       </c>
       <c r="E102" s="15">
-        <v>-11.15</v>
+        <v>-11.13</v>
       </c>
       <c r="F102" s="15">
-        <v>-4.75</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-4.74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
         <v>40117</v>
       </c>
@@ -2493,19 +2493,19 @@
         <v>91.6</v>
       </c>
       <c r="C103" s="15">
-        <v>-26.19</v>
+        <v>-26.2</v>
       </c>
       <c r="D103" s="16">
-        <v>-14.93</v>
+        <v>-14.94</v>
       </c>
       <c r="E103" s="15">
-        <v>-7.85</v>
+        <v>-7.94</v>
       </c>
       <c r="F103" s="15">
-        <v>-4.9400000000000004</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
         <v>40147</v>
       </c>
@@ -2513,19 +2513,19 @@
         <v>91.8</v>
       </c>
       <c r="C104" s="15">
-        <v>-23.11</v>
+        <v>-23.12</v>
       </c>
       <c r="D104" s="16">
         <v>-14.34</v>
       </c>
       <c r="E104" s="15">
-        <v>-8.49</v>
+        <v>-8.5399999999999991</v>
       </c>
       <c r="F104" s="15">
-        <v>-5.27</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-5.3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
         <v>40178</v>
       </c>
@@ -2539,13 +2539,13 @@
         <v>-13.48</v>
       </c>
       <c r="E105" s="15">
-        <v>-8.5299999999999994</v>
+        <v>-8.51</v>
       </c>
       <c r="F105" s="15">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-1.48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
         <v>40209</v>
       </c>
@@ -2559,13 +2559,13 @@
         <v>-16.55</v>
       </c>
       <c r="E106" s="15">
-        <v>-6.56</v>
+        <v>-6.55</v>
       </c>
       <c r="F106" s="15">
-        <v>-3.35</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-3.33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
         <v>40237</v>
       </c>
@@ -2579,13 +2579,13 @@
         <v>-15.24</v>
       </c>
       <c r="E107" s="15">
-        <v>-9.64</v>
+        <v>-9.6300000000000008</v>
       </c>
       <c r="F107" s="15">
-        <v>-2.58</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-2.56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <v>40268</v>
       </c>
@@ -2599,13 +2599,13 @@
         <v>-13.41</v>
       </c>
       <c r="E108" s="15">
-        <v>-7.72</v>
+        <v>-7.71</v>
       </c>
       <c r="F108" s="15">
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <v>40298</v>
       </c>
@@ -2619,13 +2619,13 @@
         <v>-9.9499999999999993</v>
       </c>
       <c r="E109" s="15">
-        <v>-1.72</v>
+        <v>-1.71</v>
       </c>
       <c r="F109" s="15">
-        <v>5.24</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
         <v>40329</v>
       </c>
@@ -2639,13 +2639,13 @@
         <v>-8.67</v>
       </c>
       <c r="E110" s="15">
-        <v>-0.55000000000000004</v>
+        <v>-0.54</v>
       </c>
       <c r="F110" s="15">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
         <v>40359</v>
       </c>
@@ -2659,13 +2659,13 @@
         <v>-9.24</v>
       </c>
       <c r="E111" s="15">
-        <v>-0.6</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="F111" s="15">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
         <v>40390</v>
       </c>
@@ -2679,13 +2679,13 @@
         <v>-8.32</v>
       </c>
       <c r="E112" s="15">
-        <v>3.89</v>
+        <v>3.91</v>
       </c>
       <c r="F112" s="15">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <v>40421</v>
       </c>
@@ -2699,13 +2699,13 @@
         <v>-8.02</v>
       </c>
       <c r="E113" s="15">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="F113" s="15">
-        <v>8.76</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.7799999999999994</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="10">
         <v>40451</v>
       </c>
@@ -2719,13 +2719,13 @@
         <v>-7.49</v>
       </c>
       <c r="E114" s="15">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="F114" s="15">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
         <v>40482</v>
       </c>
@@ -2733,19 +2733,19 @@
         <v>100.7</v>
       </c>
       <c r="C115" s="15">
-        <v>8.8699999999999992</v>
+        <v>8.86</v>
       </c>
       <c r="D115" s="16">
         <v>-3.8</v>
       </c>
       <c r="E115" s="15">
-        <v>6.15</v>
+        <v>6.06</v>
       </c>
       <c r="F115" s="15">
-        <v>9.06</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="10">
         <v>40512</v>
       </c>
@@ -2759,13 +2759,13 @@
         <v>-4.4000000000000004</v>
       </c>
       <c r="E116" s="15">
-        <v>7.51</v>
+        <v>7.46</v>
       </c>
       <c r="F116" s="15">
-        <v>9.73</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="10">
         <v>40543</v>
       </c>
@@ -2779,13 +2779,13 @@
         <v>-4.03</v>
       </c>
       <c r="E117" s="15">
-        <v>7.47</v>
+        <v>7.49</v>
       </c>
       <c r="F117" s="15">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="10">
         <v>40574</v>
       </c>
@@ -2799,13 +2799,13 @@
         <v>-1.7</v>
       </c>
       <c r="E118" s="15">
-        <v>6.44</v>
+        <v>6.45</v>
       </c>
       <c r="F118" s="15">
-        <v>9.65</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="10">
         <v>40602</v>
       </c>
@@ -2819,13 +2819,13 @@
         <v>0.18</v>
       </c>
       <c r="E119" s="15">
-        <v>8.36</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="F119" s="15">
-        <v>9.42</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
         <v>40633</v>
       </c>
@@ -2839,13 +2839,13 @@
         <v>0.98</v>
       </c>
       <c r="E120" s="15">
-        <v>9.2799999999999994</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="F120" s="15">
-        <v>12.16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <v>40663</v>
       </c>
@@ -2853,19 +2853,19 @@
         <v>103.3</v>
       </c>
       <c r="C121" s="15">
-        <v>14.78</v>
+        <v>14.79</v>
       </c>
       <c r="D121" s="16">
         <v>-0.14000000000000001</v>
       </c>
       <c r="E121" s="15">
-        <v>8.2799999999999994</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="F121" s="15">
-        <v>15.24</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15.26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
         <v>40694</v>
       </c>
@@ -2873,19 +2873,19 @@
         <v>102.3</v>
       </c>
       <c r="C122" s="15">
-        <v>13.85</v>
+        <v>13.86</v>
       </c>
       <c r="D122" s="16">
         <v>-0.94</v>
       </c>
       <c r="E122" s="15">
-        <v>7.45</v>
+        <v>7.46</v>
       </c>
       <c r="F122" s="15">
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>40724</v>
       </c>
@@ -2899,13 +2899,13 @@
         <v>0.61</v>
       </c>
       <c r="E123" s="15">
-        <v>7.4</v>
+        <v>7.42</v>
       </c>
       <c r="F123" s="15">
-        <v>11.57</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="10">
         <v>40755</v>
       </c>
@@ -2919,13 +2919,13 @@
         <v>-0.49</v>
       </c>
       <c r="E124" s="15">
-        <v>5.89</v>
+        <v>5.91</v>
       </c>
       <c r="F124" s="15">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="10">
         <v>40786</v>
       </c>
@@ -2939,13 +2939,13 @@
         <v>1.32</v>
       </c>
       <c r="E125" s="15">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="F125" s="15">
-        <v>7.76</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="10">
         <v>40816</v>
       </c>
@@ -2959,33 +2959,33 @@
         <v>-0.05</v>
       </c>
       <c r="E126" s="15">
-        <v>3.85</v>
+        <v>3.87</v>
       </c>
       <c r="F126" s="15">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="10">
         <v>40847</v>
       </c>
       <c r="B127" s="25">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="C127" s="15">
-        <v>5.89</v>
+        <v>5.88</v>
       </c>
       <c r="D127" s="16">
-        <v>-4.71</v>
+        <v>-4.72</v>
       </c>
       <c r="E127" s="15">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="F127" s="15">
-        <v>9.06</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="10">
         <v>40877</v>
       </c>
@@ -2999,13 +2999,13 @@
         <v>-1.37</v>
       </c>
       <c r="E128" s="15">
-        <v>3.51</v>
+        <v>3.46</v>
       </c>
       <c r="F128" s="15">
-        <v>8.73</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="10">
         <v>40908</v>
       </c>
@@ -3019,13 +3019,13 @@
         <v>-1.81</v>
       </c>
       <c r="E129" s="15">
-        <v>3.47</v>
+        <v>3.49</v>
       </c>
       <c r="F129" s="15">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="10">
         <v>40939</v>
       </c>
@@ -3039,13 +3039,13 @@
         <v>-0.1</v>
       </c>
       <c r="E130" s="15">
-        <v>4.4400000000000004</v>
+        <v>4.45</v>
       </c>
       <c r="F130" s="15">
-        <v>9.65</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="10">
         <v>40968</v>
       </c>
@@ -3059,13 +3059,13 @@
         <v>-0.28000000000000003</v>
       </c>
       <c r="E131" s="15">
-        <v>6.36</v>
+        <v>6.37</v>
       </c>
       <c r="F131" s="15">
-        <v>9.42</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="10">
         <v>40999</v>
       </c>
@@ -3079,13 +3079,13 @@
         <v>-0.71</v>
       </c>
       <c r="E132" s="15">
-        <v>4.28</v>
+        <v>4.29</v>
       </c>
       <c r="F132" s="15">
-        <v>12.16</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="10">
         <v>41029</v>
       </c>
@@ -3099,13 +3099,13 @@
         <v>-1.32</v>
       </c>
       <c r="E133" s="15">
-        <v>4.28</v>
+        <v>4.29</v>
       </c>
       <c r="F133" s="15">
-        <v>10.24</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="10">
         <v>41060</v>
       </c>
@@ -3119,13 +3119,13 @@
         <v>2.11</v>
       </c>
       <c r="E134" s="15">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="F134" s="15">
-        <v>13.25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="10">
         <v>41090</v>
       </c>
@@ -3136,16 +3136,16 @@
         <v>-1.46</v>
       </c>
       <c r="D135" s="16">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="E135" s="15">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="F135" s="15">
-        <v>7.57</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="10">
         <v>41121</v>
       </c>
@@ -3153,19 +3153,19 @@
         <v>98.4</v>
       </c>
       <c r="C136" s="15">
-        <v>-5.23</v>
+        <v>-5.22</v>
       </c>
       <c r="D136" s="16">
         <v>-0.68</v>
       </c>
       <c r="E136" s="15">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="F136" s="15">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="10">
         <v>41152</v>
       </c>
@@ -3179,13 +3179,13 @@
         <v>-2.66</v>
       </c>
       <c r="E137" s="15">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F137" s="15">
-        <v>7.76</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="10">
         <v>41182</v>
       </c>
@@ -3199,33 +3199,33 @@
         <v>-0.45</v>
       </c>
       <c r="E138" s="15">
-        <v>-1.1499999999999999</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="F138" s="15">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="10">
         <v>41213</v>
       </c>
       <c r="B139" s="25">
-        <v>96.9</v>
+        <v>96.8</v>
       </c>
       <c r="C139" s="15">
-        <v>-10.07</v>
+        <v>-10.08</v>
       </c>
       <c r="D139" s="16">
-        <v>-3.68</v>
+        <v>-3.69</v>
       </c>
       <c r="E139" s="15">
-        <v>-1.85</v>
+        <v>-1.94</v>
       </c>
       <c r="F139" s="15">
-        <v>5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="10">
         <v>41243</v>
       </c>
@@ -3239,13 +3239,13 @@
         <v>-1.26</v>
       </c>
       <c r="E140" s="15">
-        <v>-1.49</v>
+        <v>-1.54</v>
       </c>
       <c r="F140" s="15">
-        <v>7.73</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="10">
         <v>41274</v>
       </c>
@@ -3256,16 +3256,16 @@
         <v>-6.91</v>
       </c>
       <c r="D141" s="16">
-        <v>-5.0199999999999996</v>
+        <v>-5.01</v>
       </c>
       <c r="E141" s="15">
-        <v>-2.5299999999999998</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="F141" s="15">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
         <v>41305</v>
       </c>
@@ -3279,13 +3279,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="E142" s="15">
-        <v>-2.56</v>
+        <v>-2.5499999999999998</v>
       </c>
       <c r="F142" s="15">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="10">
         <v>41333</v>
       </c>
@@ -3299,13 +3299,13 @@
         <v>-0.36</v>
       </c>
       <c r="E143" s="15">
-        <v>-2.64</v>
+        <v>-2.63</v>
       </c>
       <c r="F143" s="15">
-        <v>8.42</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="10">
         <v>41364</v>
       </c>
@@ -3319,13 +3319,13 @@
         <v>-3.3</v>
       </c>
       <c r="E144" s="15">
-        <v>-2.72</v>
+        <v>-2.71</v>
       </c>
       <c r="F144" s="15">
-        <v>10.16</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="10">
         <v>41394</v>
       </c>
@@ -3333,19 +3333,19 @@
         <v>98.4</v>
       </c>
       <c r="C145" s="15">
-        <v>-6.61</v>
+        <v>-6.6</v>
       </c>
       <c r="D145" s="16">
-        <v>-0.52</v>
+        <v>-0.53</v>
       </c>
       <c r="E145" s="15">
-        <v>-3.72</v>
+        <v>-3.71</v>
       </c>
       <c r="F145" s="15">
-        <v>9.24</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="10">
         <v>41425</v>
       </c>
@@ -3353,19 +3353,19 @@
         <v>98.5</v>
       </c>
       <c r="C146" s="15">
-        <v>-6.04</v>
+        <v>-6.03</v>
       </c>
       <c r="D146" s="16">
         <v>0.11</v>
       </c>
       <c r="E146" s="15">
-        <v>-2.5499999999999998</v>
+        <v>-2.54</v>
       </c>
       <c r="F146" s="15">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="10">
         <v>41455</v>
       </c>
@@ -3373,19 +3373,19 @@
         <v>97.4</v>
       </c>
       <c r="C147" s="15">
-        <v>-6.35</v>
+        <v>-6.34</v>
       </c>
       <c r="D147" s="16">
         <v>-0.65</v>
       </c>
       <c r="E147" s="15">
-        <v>-3.6</v>
+        <v>-3.58</v>
       </c>
       <c r="F147" s="15">
-        <v>5.57</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5.58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="10">
         <v>41486</v>
       </c>
@@ -3399,13 +3399,13 @@
         <v>1.99</v>
       </c>
       <c r="E148" s="15">
-        <v>-4.1100000000000003</v>
+        <v>-4.09</v>
       </c>
       <c r="F148" s="15">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="10">
         <v>41517</v>
       </c>
@@ -3416,16 +3416,16 @@
         <v>-2.52</v>
       </c>
       <c r="D149" s="16">
-        <v>2.4900000000000002</v>
+        <v>2.5</v>
       </c>
       <c r="E149" s="15">
-        <v>-0.08</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="F149" s="15">
-        <v>8.76</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.7799999999999994</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="10">
         <v>41547</v>
       </c>
@@ -3433,19 +3433,19 @@
         <v>98.8</v>
       </c>
       <c r="C150" s="15">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="D150" s="16">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="E150" s="15">
-        <v>-1.1499999999999999</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="F150" s="15">
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="10">
         <v>41578</v>
       </c>
@@ -3453,19 +3453,19 @@
         <v>98.9</v>
       </c>
       <c r="C151" s="15">
-        <v>-0.03</v>
+        <v>-0.05</v>
       </c>
       <c r="D151" s="16">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="E151" s="15">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="F151" s="15">
-        <v>7.06</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
         <v>41608</v>
       </c>
@@ -3473,19 +3473,19 @@
         <v>99.7</v>
       </c>
       <c r="C152" s="15">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="D152" s="16">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="E152" s="15">
-        <v>-0.49</v>
+        <v>-0.54</v>
       </c>
       <c r="F152" s="15">
-        <v>9.73</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="10">
         <v>41639</v>
       </c>
@@ -3493,19 +3493,19 @@
         <v>99.5</v>
       </c>
       <c r="C153" s="15">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="D153" s="16">
         <v>-0.57999999999999996</v>
       </c>
       <c r="E153" s="15">
-        <v>-0.53</v>
+        <v>-0.51</v>
       </c>
       <c r="F153" s="15">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>41670</v>
       </c>
@@ -3516,16 +3516,16 @@
         <v>1.61</v>
       </c>
       <c r="D154" s="16">
-        <v>-1.63</v>
+        <v>-1.64</v>
       </c>
       <c r="E154" s="15">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F154" s="15">
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="10">
         <v>41698</v>
       </c>
@@ -3536,16 +3536,16 @@
         <v>1.5</v>
       </c>
       <c r="D155" s="16">
-        <v>-0.09</v>
+        <v>-0.08</v>
       </c>
       <c r="E155" s="15">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="F155" s="15">
-        <v>12.42</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
         <v>41729</v>
       </c>
@@ -3553,39 +3553,39 @@
         <v>101</v>
       </c>
       <c r="C156" s="15">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="D156" s="16">
         <v>-0.8</v>
       </c>
       <c r="E156" s="15">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="F156" s="15">
-        <v>13.16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="10">
         <v>41759</v>
       </c>
       <c r="B157" s="25">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="C157" s="15">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="D157" s="16">
-        <v>-2.91</v>
+        <v>-2.92</v>
       </c>
       <c r="E157" s="15">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="F157" s="15">
-        <v>14.24</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="10">
         <v>41790</v>
       </c>
@@ -3593,19 +3593,19 @@
         <v>100.1</v>
       </c>
       <c r="C158" s="15">
-        <v>1.1399999999999999</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="D158" s="16">
         <v>-3.83</v>
       </c>
       <c r="E158" s="15">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="F158" s="15">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11.27</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="10">
         <v>41820</v>
       </c>
@@ -3613,19 +3613,19 @@
         <v>98.9</v>
       </c>
       <c r="C159" s="15">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="D159" s="16">
-        <v>-3</v>
+        <v>-2.99</v>
       </c>
       <c r="E159" s="15">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="F159" s="15">
-        <v>7.57</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="10">
         <v>41851</v>
       </c>
@@ -3633,19 +3633,19 @@
         <v>98.5</v>
       </c>
       <c r="C160" s="15">
-        <v>-0.74</v>
+        <v>-0.73</v>
       </c>
       <c r="D160" s="16">
-        <v>-4.6100000000000003</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="E160" s="15">
-        <v>-2.11</v>
+        <v>-2.09</v>
       </c>
       <c r="F160" s="15">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.42</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="10">
         <v>41882</v>
       </c>
@@ -3659,13 +3659,13 @@
         <v>-3.57</v>
       </c>
       <c r="E161" s="15">
-        <v>-2.08</v>
+        <v>-2.0699999999999998</v>
       </c>
       <c r="F161" s="15">
-        <v>9.76</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.7799999999999994</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="10">
         <v>41912</v>
       </c>
@@ -3673,39 +3673,39 @@
         <v>98.9</v>
       </c>
       <c r="C162" s="15">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D162" s="16">
-        <v>-1.95</v>
+        <v>-1.92</v>
       </c>
       <c r="E162" s="15">
-        <v>-3.15</v>
+        <v>-3.13</v>
       </c>
       <c r="F162" s="15">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="10">
         <v>41943</v>
       </c>
       <c r="B163" s="25">
-        <v>98.4</v>
+        <v>98.3</v>
       </c>
       <c r="C163" s="15">
-        <v>-5.97</v>
+        <v>-5.99</v>
       </c>
       <c r="D163" s="16">
-        <v>-0.13</v>
+        <v>-0.15</v>
       </c>
       <c r="E163" s="15">
-        <v>-3.85</v>
+        <v>-3.94</v>
       </c>
       <c r="F163" s="15">
-        <v>9.06</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="10">
         <v>41973</v>
       </c>
@@ -3713,19 +3713,19 @@
         <v>97.3</v>
       </c>
       <c r="C164" s="15">
-        <v>-5.58</v>
+        <v>-5.6</v>
       </c>
       <c r="D164" s="16">
-        <v>-3.02</v>
+        <v>-3.04</v>
       </c>
       <c r="E164" s="15">
-        <v>-2.4900000000000002</v>
+        <v>-2.54</v>
       </c>
       <c r="F164" s="15">
-        <v>4.7300000000000004</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="10">
         <v>42004</v>
       </c>
@@ -3733,19 +3733,19 @@
         <v>98.2</v>
       </c>
       <c r="C165" s="15">
-        <v>-3.36</v>
+        <v>-3.38</v>
       </c>
       <c r="D165" s="16">
         <v>-2.2599999999999998</v>
       </c>
       <c r="E165" s="15">
-        <v>-4.53</v>
+        <v>-4.51</v>
       </c>
       <c r="F165" s="15">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="10">
         <v>42035</v>
       </c>
@@ -3756,16 +3756,16 @@
         <v>-2.69</v>
       </c>
       <c r="D166" s="28">
-        <v>-1.72</v>
+        <v>-1.73</v>
       </c>
       <c r="E166" s="27">
-        <v>-2.56</v>
+        <v>-2.5499999999999998</v>
       </c>
       <c r="F166" s="15">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="10">
         <v>42063</v>
       </c>
@@ -3776,16 +3776,16 @@
         <v>-0.68</v>
       </c>
       <c r="D167" s="28">
-        <v>-4.6500000000000004</v>
+        <v>-4.6399999999999997</v>
       </c>
       <c r="E167" s="27">
-        <v>-2.64</v>
+        <v>-2.63</v>
       </c>
       <c r="F167" s="15">
-        <v>8.42</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8.44</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="10">
         <v>42094</v>
       </c>
@@ -3793,19 +3793,19 @@
         <v>99.9</v>
       </c>
       <c r="C168" s="27">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="D168" s="28">
         <v>-3.22</v>
       </c>
       <c r="E168" s="27">
-        <v>-1.72</v>
+        <v>-1.71</v>
       </c>
       <c r="F168" s="15">
-        <v>11.16</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="10">
         <v>42124</v>
       </c>
@@ -3813,19 +3813,19 @@
         <v>100.4</v>
       </c>
       <c r="C169" s="27">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="D169" s="28">
-        <v>-3.38</v>
+        <v>-3.39</v>
       </c>
       <c r="E169" s="27">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F169" s="15">
-        <v>12.24</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.26</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="10">
         <v>42155</v>
       </c>
@@ -3833,19 +3833,19 @@
         <v>100.3</v>
       </c>
       <c r="C170" s="27">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="D170" s="28">
         <v>-5.0599999999999996</v>
       </c>
       <c r="E170" s="27">
-        <v>-0.55000000000000004</v>
+        <v>-0.54</v>
       </c>
       <c r="F170" s="15">
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="10">
         <v>42185</v>
       </c>
@@ -3853,19 +3853,19 @@
         <v>100</v>
       </c>
       <c r="C171" s="27">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="D171" s="28">
-        <v>-5.51</v>
+        <v>-5.5</v>
       </c>
       <c r="E171" s="27">
-        <v>-1.6</v>
+        <v>-1.58</v>
       </c>
       <c r="F171" s="15">
-        <v>11.57</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11.58</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="10">
         <v>42216</v>
       </c>
@@ -3873,19 +3873,19 @@
         <v>100.4</v>
       </c>
       <c r="C172" s="27">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="D172" s="28">
-        <v>-2.34</v>
+        <v>-2.33</v>
       </c>
       <c r="E172" s="27">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F172" s="15">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="10">
         <v>42247</v>
       </c>
@@ -3899,13 +3899,13 @@
         <v>0.61</v>
       </c>
       <c r="E173" s="27">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F173" s="15">
-        <v>11.76</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="10">
         <v>42277</v>
       </c>
@@ -3913,39 +3913,39 @@
         <v>99.5</v>
       </c>
       <c r="C174" s="27">
-        <v>-1.05</v>
+        <v>-1.07</v>
       </c>
       <c r="D174" s="28">
-        <v>-1.8</v>
+        <v>-1.75</v>
       </c>
       <c r="E174" s="27">
-        <v>-0.15</v>
+        <v>-0.13</v>
       </c>
       <c r="F174" s="15">
-        <v>10.25</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="10">
         <v>42308</v>
       </c>
       <c r="B175" s="26">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="C175" s="27">
-        <v>-4.05</v>
+        <v>-4.08</v>
       </c>
       <c r="D175" s="28">
-        <v>-0.89</v>
+        <v>-0.92</v>
       </c>
       <c r="E175" s="27">
-        <v>1.1499999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="F175" s="15">
-        <v>14.06</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="10">
         <v>42338</v>
       </c>
@@ -3953,19 +3953,19 @@
         <v>101</v>
       </c>
       <c r="C176" s="27">
-        <v>-1.79</v>
+        <v>-1.82</v>
       </c>
       <c r="D176" s="28">
-        <v>4.1900000000000004</v>
+        <v>4.16</v>
       </c>
       <c r="E176" s="27">
-        <v>2.5099999999999998</v>
+        <v>2.46</v>
       </c>
       <c r="F176" s="15">
-        <v>14.73</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="10">
         <v>42369</v>
       </c>
@@ -3973,19 +3973,19 @@
         <v>101.1</v>
       </c>
       <c r="C177" s="27">
-        <v>-1.64</v>
+        <v>-1.66</v>
       </c>
       <c r="D177" s="28">
         <v>2.21</v>
       </c>
       <c r="E177" s="27">
-        <v>2.4700000000000002</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="F177" s="15">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15.52</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="10">
         <v>42400</v>
       </c>
@@ -3993,19 +3993,19 @@
         <v>100.9</v>
       </c>
       <c r="C178" s="15">
-        <v>-2.87</v>
+        <v>-2.88</v>
       </c>
       <c r="D178" s="17">
-        <v>-0.99</v>
+        <v>-1.01</v>
       </c>
       <c r="E178" s="15">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="F178" s="15">
-        <v>15.65</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="10">
         <v>42428</v>
       </c>
@@ -4019,13 +4019,13 @@
         <v>1.74</v>
       </c>
       <c r="E179" s="15">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="F179" s="15">
-        <v>11.42</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="10">
         <v>42456</v>
       </c>
@@ -4033,19 +4033,19 @@
         <v>99.5</v>
       </c>
       <c r="C180" s="15">
-        <v>-3.1</v>
+        <v>-3.08</v>
       </c>
       <c r="D180" s="17">
         <v>2.34</v>
       </c>
       <c r="E180" s="15">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="F180" s="15">
-        <v>10.16</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="10">
         <v>42484</v>
       </c>
@@ -4053,39 +4053,39 @@
         <v>100.6</v>
       </c>
       <c r="C181" s="15">
-        <v>-2.59</v>
+        <v>-2.56</v>
       </c>
       <c r="D181" s="16">
-        <v>-0.73</v>
+        <v>-0.74</v>
       </c>
       <c r="E181" s="15">
-        <v>2.2799999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="F181" s="15">
-        <v>14.24</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="10">
         <v>42512</v>
       </c>
       <c r="B182" s="25">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="C182" s="15">
-        <v>-1.3</v>
+        <v>-1.28</v>
       </c>
       <c r="D182" s="16">
-        <v>3.53</v>
+        <v>3.54</v>
       </c>
       <c r="E182" s="15">
-        <v>2.4500000000000002</v>
+        <v>2.46</v>
       </c>
       <c r="F182" s="15">
-        <v>12.25</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.27</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="10">
         <v>42540</v>
       </c>
@@ -4093,19 +4093,19 @@
         <v>100</v>
       </c>
       <c r="C183" s="15">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D183" s="16">
-        <v>7.04</v>
+        <v>7.06</v>
       </c>
       <c r="E183" s="15">
-        <v>4.4000000000000004</v>
+        <v>4.42</v>
       </c>
       <c r="F183" s="15">
-        <v>9.57</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="10">
         <v>42568</v>
       </c>
@@ -4113,19 +4113,19 @@
         <v>100.6</v>
       </c>
       <c r="C184" s="15">
-        <v>-0.18</v>
+        <v>-0.15</v>
       </c>
       <c r="D184" s="16">
-        <v>5.69</v>
+        <v>5.7</v>
       </c>
       <c r="E184" s="15">
-        <v>2.89</v>
+        <v>2.91</v>
       </c>
       <c r="F184" s="15">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="10">
         <v>42596</v>
       </c>
@@ -4136,16 +4136,16 @@
         <v>0.76</v>
       </c>
       <c r="D185" s="16">
-        <v>6.76</v>
+        <v>6.77</v>
       </c>
       <c r="E185" s="15">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F185" s="15">
-        <v>12.76</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="10">
         <v>42624</v>
       </c>
@@ -4153,19 +4153,19 @@
         <v>101.4</v>
       </c>
       <c r="C186" s="15">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="D186" s="16">
-        <v>9.69</v>
+        <v>9.74</v>
       </c>
       <c r="E186" s="15">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="F186" s="15">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="10">
         <v>42652</v>
       </c>
@@ -4173,39 +4173,39 @@
         <v>101.7</v>
       </c>
       <c r="C187" s="15">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="D187" s="16">
-        <v>6.44</v>
+        <v>6.4</v>
       </c>
       <c r="E187" s="15">
-        <v>3.15</v>
+        <v>3.06</v>
       </c>
       <c r="F187" s="15">
-        <v>15.06</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14.94</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="10">
         <v>42680</v>
       </c>
       <c r="B188" s="25">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="C188" s="15">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="D188" s="16">
-        <v>6.4</v>
+        <v>6.37</v>
       </c>
       <c r="E188" s="15">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="F188" s="15">
-        <v>16.73</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="10">
         <v>42708</v>
       </c>
@@ -4213,19 +4213,19 @@
         <v>102.2</v>
       </c>
       <c r="C189" s="15">
-        <v>3.02</v>
+        <v>2.96</v>
       </c>
       <c r="D189" s="16">
         <v>7.84</v>
       </c>
       <c r="E189" s="15">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="F189" s="15">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="10">
         <v>42736</v>
       </c>
@@ -4233,19 +4233,19 @@
         <v>102.1</v>
       </c>
       <c r="C190" s="15">
-        <v>4.93</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D190" s="16">
-        <v>6.51</v>
+        <v>6.49</v>
       </c>
       <c r="E190" s="15">
-        <v>2.44</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="F190" s="15">
-        <v>15.65</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="10">
         <v>42794</v>
       </c>
@@ -4253,19 +4253,19 @@
         <v>101.8</v>
       </c>
       <c r="C191" s="15">
-        <v>7.01</v>
+        <v>7</v>
       </c>
       <c r="D191" s="16">
-        <v>6.7</v>
+        <v>6.66</v>
       </c>
       <c r="E191" s="15">
-        <v>4.3600000000000003</v>
+        <v>4.37</v>
       </c>
       <c r="F191" s="15">
-        <v>13.42</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="10">
         <v>42825</v>
       </c>
@@ -4273,19 +4273,19 @@
         <v>101.8</v>
       </c>
       <c r="C192" s="15">
-        <v>6.12</v>
+        <v>6.16</v>
       </c>
       <c r="D192" s="16">
-        <v>9.06</v>
+        <v>9.07</v>
       </c>
       <c r="E192" s="15">
-        <v>5.28</v>
+        <v>5.29</v>
       </c>
       <c r="F192" s="15">
-        <v>13.16</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="10">
         <v>42855</v>
       </c>
@@ -4293,19 +4293,19 @@
         <v>103.3</v>
       </c>
       <c r="C193" s="15">
-        <v>8.43</v>
+        <v>8.51</v>
       </c>
       <c r="D193" s="16">
-        <v>12.24</v>
+        <v>12.29</v>
       </c>
       <c r="E193" s="15">
-        <v>6.28</v>
+        <v>6.29</v>
       </c>
       <c r="F193" s="15">
-        <v>17.239999999999998</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="10">
         <v>42886</v>
       </c>
@@ -4313,19 +4313,19 @@
         <v>102.9</v>
       </c>
       <c r="C194" s="15">
-        <v>10.07</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="D194" s="16">
-        <v>13.02</v>
+        <v>12.97</v>
       </c>
       <c r="E194" s="15">
-        <v>4.45</v>
+        <v>4.46</v>
       </c>
       <c r="F194" s="15">
-        <v>15.25</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15.27</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="10">
         <v>42916</v>
       </c>
@@ -4333,19 +4333,19 @@
         <v>103.1</v>
       </c>
       <c r="C195" s="15">
-        <v>10.33</v>
+        <v>10.35</v>
       </c>
       <c r="D195" s="16">
-        <v>14.39</v>
+        <v>14.44</v>
       </c>
       <c r="E195" s="15">
-        <v>5.4</v>
+        <v>5.42</v>
       </c>
       <c r="F195" s="15">
-        <v>15.57</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15.58</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="10">
         <v>42947</v>
       </c>
@@ -4353,19 +4353,19 @@
         <v>103.6</v>
       </c>
       <c r="C196" s="15">
-        <v>12.01</v>
+        <v>12.03</v>
       </c>
       <c r="D196" s="16">
-        <v>12.8</v>
+        <v>12.83</v>
       </c>
       <c r="E196" s="15">
-        <v>6.89</v>
+        <v>6.91</v>
       </c>
       <c r="F196" s="15">
-        <v>16.399999999999999</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16.420000000000002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="10">
         <v>42978</v>
       </c>
@@ -4373,19 +4373,19 @@
         <v>102.9</v>
       </c>
       <c r="C197" s="15">
-        <v>12.69</v>
+        <v>12.68</v>
       </c>
       <c r="D197" s="16">
-        <v>13.3</v>
+        <v>13.32</v>
       </c>
       <c r="E197" s="15">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="F197" s="15">
-        <v>13.76</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.78</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="10">
         <v>43008</v>
       </c>
@@ -4393,19 +4393,19 @@
         <v>103.3</v>
       </c>
       <c r="C198" s="15">
-        <v>10.75</v>
+        <v>10.73</v>
       </c>
       <c r="D198" s="16">
-        <v>10.93</v>
+        <v>10.99</v>
       </c>
       <c r="E198" s="15">
-        <v>6.85</v>
+        <v>6.87</v>
       </c>
       <c r="F198" s="15">
-        <v>16.25</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16.260000000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="10">
         <v>43039</v>
       </c>
@@ -4413,19 +4413,19 @@
         <v>103.5</v>
       </c>
       <c r="C199" s="15">
-        <v>12.73</v>
+        <v>12.7</v>
       </c>
       <c r="D199" s="17">
-        <v>7.66</v>
+        <v>7.61</v>
       </c>
       <c r="E199" s="15">
-        <v>8.15</v>
+        <v>8.06</v>
       </c>
       <c r="F199" s="15">
-        <v>16.059999999999999</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15.94</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="10">
         <v>43069</v>
       </c>
@@ -4433,19 +4433,19 @@
         <v>103.3</v>
       </c>
       <c r="C200" s="15">
-        <v>12.98</v>
+        <v>12.94</v>
       </c>
       <c r="D200" s="16">
-        <v>10.58</v>
+        <v>10.53</v>
       </c>
       <c r="E200" s="15">
-        <v>8.51</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="F200" s="15">
-        <v>14.73</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="10">
         <v>43100</v>
       </c>
@@ -4453,19 +4453,19 @@
         <v>104.4</v>
       </c>
       <c r="C201" s="15">
-        <v>15.64</v>
+        <v>15.55</v>
       </c>
       <c r="D201" s="16">
-        <v>9.7100000000000009</v>
+        <v>9.7200000000000006</v>
       </c>
       <c r="E201" s="15">
-        <v>9.4700000000000006</v>
+        <v>9.49</v>
       </c>
       <c r="F201" s="15">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17.52</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="10">
         <v>43101</v>
       </c>
@@ -4473,19 +4473,19 @@
         <v>105.2</v>
       </c>
       <c r="C202" s="15">
-        <v>14.83</v>
+        <v>14.75</v>
       </c>
       <c r="D202" s="16">
-        <v>12.8</v>
+        <v>12.81</v>
       </c>
       <c r="E202" s="15">
-        <v>9.44</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="F202" s="15">
-        <v>20.65</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20.67</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="10">
         <v>43159</v>
       </c>
@@ -4493,19 +4493,19 @@
         <v>105</v>
       </c>
       <c r="C203" s="15">
-        <v>12.97</v>
+        <v>12.93</v>
       </c>
       <c r="D203" s="16">
-        <v>11.59</v>
+        <v>11.36</v>
       </c>
       <c r="E203" s="15">
-        <v>10.36</v>
+        <v>10.37</v>
       </c>
       <c r="F203" s="15">
-        <v>20.420000000000002</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20.440000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="10">
         <v>43186</v>
       </c>
@@ -4513,19 +4513,19 @@
         <v>104.5</v>
       </c>
       <c r="C204" s="15">
-        <v>13.36</v>
+        <v>13.43</v>
       </c>
       <c r="D204" s="16">
-        <v>11.97</v>
+        <v>12.03</v>
       </c>
       <c r="E204" s="15">
-        <v>7.28</v>
+        <v>7.29</v>
       </c>
       <c r="F204" s="15">
-        <v>19.16</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19.170000000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="10">
         <v>43214</v>
       </c>
@@ -4533,19 +4533,19 @@
         <v>104.1</v>
       </c>
       <c r="C205" s="15">
-        <v>14.44</v>
+        <v>14.55</v>
       </c>
       <c r="D205" s="16">
-        <v>13.29</v>
+        <v>13.44</v>
       </c>
       <c r="E205" s="15">
-        <v>7.28</v>
+        <v>7.29</v>
       </c>
       <c r="F205" s="15">
-        <v>17.239999999999998</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="10">
         <v>43241</v>
       </c>
@@ -4553,19 +4553,19 @@
         <v>104.7</v>
       </c>
       <c r="C206" s="15">
-        <v>12.4</v>
+        <v>12.54</v>
       </c>
       <c r="D206" s="16">
-        <v>13.37</v>
+        <v>13.3</v>
       </c>
       <c r="E206" s="15">
-        <v>7.45</v>
+        <v>7.46</v>
       </c>
       <c r="F206" s="15">
-        <v>20.25</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="10">
         <v>43269</v>
       </c>
@@ -4573,19 +4573,19 @@
         <v>104.2</v>
       </c>
       <c r="C207" s="15">
-        <v>13.46</v>
+        <v>13.47</v>
       </c>
       <c r="D207" s="16">
-        <v>10.68</v>
+        <v>10.79</v>
       </c>
       <c r="E207" s="15">
-        <v>6.4</v>
+        <v>6.42</v>
       </c>
       <c r="F207" s="15">
-        <v>18.57</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18.579999999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="10">
         <v>43296</v>
       </c>
@@ -4593,19 +4593,19 @@
         <v>104.4</v>
       </c>
       <c r="C208" s="15">
-        <v>12.15</v>
+        <v>12.16</v>
       </c>
       <c r="D208" s="16">
-        <v>13.99</v>
+        <v>14.02</v>
       </c>
       <c r="E208" s="15">
-        <v>6.89</v>
+        <v>6.91</v>
       </c>
       <c r="F208" s="15">
-        <v>19.399999999999999</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19.420000000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="10">
         <v>43323</v>
       </c>
@@ -4613,19 +4613,19 @@
         <v>104.9</v>
       </c>
       <c r="C209" s="15">
-        <v>9.58</v>
+        <v>9.57</v>
       </c>
       <c r="D209" s="16">
-        <v>12.85</v>
+        <v>12.9</v>
       </c>
       <c r="E209" s="15">
-        <v>5.92</v>
+        <v>5.93</v>
       </c>
       <c r="F209" s="15">
-        <v>22.76</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22.78</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="10">
         <v>43353</v>
       </c>
@@ -4633,39 +4633,39 @@
         <v>104.8</v>
       </c>
       <c r="C210" s="15">
-        <v>11.69</v>
+        <v>11.66</v>
       </c>
       <c r="D210" s="16">
-        <v>13</v>
+        <v>13.05</v>
       </c>
       <c r="E210" s="15">
-        <v>5.85</v>
+        <v>5.87</v>
       </c>
       <c r="F210" s="15">
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21.26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="10">
         <v>43380</v>
       </c>
       <c r="B211" s="25">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="C211" s="15">
-        <v>8.66</v>
+        <v>8.64</v>
       </c>
       <c r="D211" s="16">
-        <v>16.96</v>
+        <v>16.91</v>
       </c>
       <c r="E211" s="15">
-        <v>4.1500000000000004</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="F211" s="15">
-        <v>21.06</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20.94</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="10">
         <v>43408</v>
       </c>
@@ -4673,39 +4673,39 @@
         <v>103.4</v>
       </c>
       <c r="C212" s="15">
-        <v>9.92</v>
+        <v>9.8699999999999992</v>
       </c>
       <c r="D212" s="16">
-        <v>19.79</v>
+        <v>19.7</v>
       </c>
       <c r="E212" s="15">
-        <v>4.51</v>
+        <v>4.46</v>
       </c>
       <c r="F212" s="15">
-        <v>16.73</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="10">
         <v>43435</v>
       </c>
       <c r="B213" s="25">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="C213" s="15">
-        <v>8.31</v>
+        <v>8.18</v>
       </c>
       <c r="D213" s="16">
-        <v>14.8</v>
+        <v>14.79</v>
       </c>
       <c r="E213" s="15">
-        <v>4.47</v>
+        <v>4.49</v>
       </c>
       <c r="F213" s="15">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19.52</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="10">
         <v>43466</v>
       </c>
@@ -4713,19 +4713,19 @@
         <v>102.7</v>
       </c>
       <c r="C214" s="15">
-        <v>3.62</v>
+        <v>3.51</v>
       </c>
       <c r="D214" s="16">
-        <v>14.15</v>
+        <v>14.13</v>
       </c>
       <c r="E214" s="15">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="F214" s="15">
-        <v>17.649999999999999</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17.670000000000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="10">
         <v>43524</v>
       </c>
@@ -4733,19 +4733,19 @@
         <v>102.8</v>
       </c>
       <c r="C215" s="15">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="D215" s="16">
-        <v>16.2</v>
+        <v>15.69</v>
       </c>
       <c r="E215" s="15">
-        <v>2.36</v>
+        <v>2.37</v>
       </c>
       <c r="F215" s="15">
-        <v>18.420000000000002</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18.440000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="10">
         <v>43551</v>
       </c>
@@ -4753,19 +4753,19 @@
         <v>101.6</v>
       </c>
       <c r="C216" s="15">
-        <v>-1.34</v>
+        <v>-1.25</v>
       </c>
       <c r="D216" s="16">
-        <v>16.899999999999999</v>
+        <v>17.09</v>
       </c>
       <c r="E216" s="15">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="F216" s="15">
-        <v>15.16</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15.17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="10">
         <v>43556</v>
       </c>
@@ -4773,39 +4773,39 @@
         <v>102.1</v>
       </c>
       <c r="C217" s="15">
-        <v>-3.52</v>
+        <v>-3.36</v>
       </c>
       <c r="D217" s="16">
-        <v>13.25</v>
+        <v>13.73</v>
       </c>
       <c r="E217" s="15">
-        <v>4.28</v>
+        <v>4.29</v>
       </c>
       <c r="F217" s="15">
-        <v>18.239999999999998</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18.260000000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="10">
         <v>43613</v>
       </c>
       <c r="B218" s="25">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="C218" s="15">
-        <v>-4.33</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="D218" s="16">
-        <v>14.75</v>
+        <v>14.57</v>
       </c>
       <c r="E218" s="15">
-        <v>2.4500000000000002</v>
+        <v>2.46</v>
       </c>
       <c r="F218" s="15">
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14.27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="10">
         <v>43643</v>
       </c>
@@ -4816,36 +4816,36 @@
         <v>-7.46</v>
       </c>
       <c r="D219" s="16">
-        <v>12.91</v>
+        <v>13.08</v>
       </c>
       <c r="E219" s="15">
-        <v>-0.6</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="F219" s="15">
-        <v>13.57</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="10">
         <v>43647</v>
       </c>
       <c r="B220" s="25">
-        <v>99.6</v>
+        <v>99.7</v>
       </c>
       <c r="C220" s="15">
-        <v>-11.7</v>
+        <v>-11.69</v>
       </c>
       <c r="D220" s="16">
-        <v>14.33</v>
+        <v>14.32</v>
       </c>
       <c r="E220" s="15">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F220" s="15">
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="10">
         <v>43705</v>
       </c>
@@ -4853,19 +4853,19 @@
         <v>98</v>
       </c>
       <c r="C221" s="15">
-        <v>-11.53</v>
+        <v>-11.55</v>
       </c>
       <c r="D221" s="15">
-        <v>12.48</v>
+        <v>12.54</v>
       </c>
       <c r="E221" s="15">
-        <v>-1.08</v>
+        <v>-1.07</v>
       </c>
       <c r="F221" s="15">
-        <v>7.76</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="10">
         <v>43735</v>
       </c>
@@ -4873,19 +4873,19 @@
         <v>98.6</v>
       </c>
       <c r="C222" s="15">
-        <v>-13.38</v>
+        <v>-13.41</v>
       </c>
       <c r="D222" s="15">
-        <v>9.77</v>
+        <v>9.81</v>
       </c>
       <c r="E222" s="15">
-        <v>-1.1499999999999999</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="F222" s="15">
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11.26</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="10">
         <v>43765</v>
       </c>
@@ -4893,19 +4893,19 @@
         <v>98.4</v>
       </c>
       <c r="C223" s="15">
-        <v>-12.45</v>
+        <v>-12.48</v>
       </c>
       <c r="D223" s="15">
-        <v>11.13</v>
+        <v>11.06</v>
       </c>
       <c r="E223" s="15">
-        <v>-0.85</v>
+        <v>-0.94</v>
       </c>
       <c r="F223" s="15">
-        <v>10.06</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="10">
         <v>43795</v>
       </c>
@@ -4913,19 +4913,19 @@
         <v>99.2</v>
       </c>
       <c r="C224" s="15">
-        <v>-14.14</v>
+        <v>-14.2</v>
       </c>
       <c r="D224" s="15">
-        <v>10.17</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="E224" s="15">
-        <v>-0.49</v>
+        <v>-0.54</v>
       </c>
       <c r="F224" s="15">
-        <v>13.73</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="10">
         <v>43825</v>
       </c>
@@ -4933,19 +4933,19 @@
         <v>98.6</v>
       </c>
       <c r="C225" s="15">
-        <v>-15.9</v>
+        <v>-16.05</v>
       </c>
       <c r="D225" s="15">
-        <v>11.14</v>
+        <v>11.1</v>
       </c>
       <c r="E225" s="15">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="F225" s="15">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11.52</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="10">
         <v>43831</v>
       </c>
@@ -4953,19 +4953,19 @@
         <v>99.4</v>
       </c>
       <c r="C226" s="15">
-        <v>-15.53</v>
+        <v>-15.67</v>
       </c>
       <c r="D226" s="15">
-        <v>10.77</v>
+        <v>10.7</v>
       </c>
       <c r="E226" s="15">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="F226" s="15">
-        <v>14.65</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14.67</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="10">
         <v>43885</v>
       </c>
@@ -4973,59 +4973,59 @@
         <v>98</v>
       </c>
       <c r="C227" s="15">
-        <v>-18.14</v>
+        <v>-18.239999999999998</v>
       </c>
       <c r="D227" s="15">
-        <v>8.9700000000000006</v>
+        <v>8.14</v>
       </c>
       <c r="E227" s="15">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="F227" s="15">
-        <v>10.42</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.44</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="10">
         <v>43910</v>
       </c>
       <c r="B228" s="25">
-        <v>93.6</v>
+        <v>93.7</v>
       </c>
       <c r="C228" s="15">
-        <v>-18.11</v>
+        <v>-18</v>
       </c>
       <c r="D228" s="15">
-        <v>3.59</v>
+        <v>3.95</v>
       </c>
       <c r="E228" s="15">
-        <v>-7.72</v>
+        <v>-7.71</v>
       </c>
       <c r="F228" s="15">
-        <v>-2.84</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-2.83</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="10">
         <v>43935</v>
       </c>
       <c r="B229" s="25">
-        <v>86.9</v>
+        <v>87</v>
       </c>
       <c r="C229" s="15">
-        <v>-28.45</v>
+        <v>-28.25</v>
       </c>
       <c r="D229" s="15">
-        <v>-6.01</v>
+        <v>-5.14</v>
       </c>
       <c r="E229" s="15">
-        <v>-24.72</v>
+        <v>-24.71</v>
       </c>
       <c r="F229" s="15">
-        <v>-17.760000000000002</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-17.739999999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="10">
         <v>43960</v>
       </c>
@@ -5033,19 +5033,19 @@
         <v>88.8</v>
       </c>
       <c r="C230" s="15">
-        <v>-28.05</v>
+        <v>-27.8</v>
       </c>
       <c r="D230" s="15">
-        <v>-2.99</v>
+        <v>-3.22</v>
       </c>
       <c r="E230" s="15">
-        <v>-19.55</v>
+        <v>-19.54</v>
       </c>
       <c r="F230" s="15">
-        <v>-12.75</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-12.73</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="10">
         <v>43985</v>
       </c>
@@ -5053,19 +5053,19 @@
         <v>92.3</v>
       </c>
       <c r="C231" s="15">
-        <v>-25.34</v>
+        <v>-25.33</v>
       </c>
       <c r="D231" s="15">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E231" s="15">
-        <v>-11.6</v>
+        <v>-11.58</v>
       </c>
       <c r="F231" s="15">
-        <v>-3.43</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-3.42</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="10">
         <v>44039</v>
       </c>
@@ -5073,19 +5073,19 @@
         <v>93.3</v>
       </c>
       <c r="C232" s="15">
-        <v>-22.6</v>
+        <v>-22.59</v>
       </c>
       <c r="D232" s="15">
-        <v>0.56000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="E232" s="15">
-        <v>-8.11</v>
+        <v>-8.09</v>
       </c>
       <c r="F232" s="15">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-1.58</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="10">
         <v>44068</v>
       </c>
@@ -5093,19 +5093,19 @@
         <v>95.1</v>
       </c>
       <c r="C233" s="15">
-        <v>-19.68</v>
+        <v>-19.71</v>
       </c>
       <c r="D233" s="15">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="E233" s="15">
-        <v>-8.08</v>
+        <v>-8.07</v>
       </c>
       <c r="F233" s="15">
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="10">
         <v>44097</v>
       </c>
@@ -5113,19 +5113,19 @@
         <v>96</v>
       </c>
       <c r="C234" s="15">
-        <v>-16.489999999999998</v>
+        <v>-16.53</v>
       </c>
       <c r="D234" s="15">
-        <v>4.54</v>
+        <v>4.55</v>
       </c>
       <c r="E234" s="15">
-        <v>-4.1500000000000004</v>
+        <v>-4.13</v>
       </c>
       <c r="F234" s="15">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="10">
         <v>44126</v>
       </c>
@@ -5133,19 +5133,19 @@
         <v>96.3</v>
       </c>
       <c r="C235" s="25">
-        <v>-13.54</v>
+        <v>-13.57</v>
       </c>
       <c r="D235" s="25">
-        <v>4.6500000000000004</v>
+        <v>4.58</v>
       </c>
       <c r="E235" s="25">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="F235" s="25">
-        <v>3.06</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="10">
         <v>44155</v>
       </c>
@@ -5153,19 +5153,19 @@
         <v>96.6</v>
       </c>
       <c r="C236" s="25">
-        <v>-13.19</v>
+        <v>-13.26</v>
       </c>
       <c r="D236" s="25">
-        <v>4.78</v>
+        <v>4.59</v>
       </c>
       <c r="E236" s="25">
-        <v>-2.4900000000000002</v>
+        <v>-2.54</v>
       </c>
       <c r="F236" s="25">
-        <v>4.7300000000000004</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="10">
         <v>44184</v>
       </c>
@@ -5173,19 +5173,19 @@
         <v>95.5</v>
       </c>
       <c r="C237" s="25">
-        <v>-11.07</v>
+        <v>-11.25</v>
       </c>
       <c r="D237" s="25">
-        <v>2.57</v>
+        <v>2.48</v>
       </c>
       <c r="E237" s="25">
-        <v>-1.53</v>
+        <v>-1.51</v>
       </c>
       <c r="F237" s="25">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-0.48</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="10">
         <v>44197</v>
       </c>
@@ -5193,39 +5193,39 @@
         <v>95.2</v>
       </c>
       <c r="C238" s="25">
-        <v>-9.6199999999999992</v>
+        <v>-9.7899999999999991</v>
       </c>
       <c r="D238" s="25">
-        <v>2.63</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="E238" s="25">
-        <v>-8.56</v>
+        <v>-8.5500000000000007</v>
       </c>
       <c r="F238" s="25">
-        <v>-0.35</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="10">
         <v>44251</v>
       </c>
       <c r="B239" s="25">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="C239" s="25">
-        <v>-5.16</v>
+        <v>-5.27</v>
       </c>
       <c r="D239" s="25">
-        <v>-2.2999999999999998</v>
+        <v>-3.39</v>
       </c>
       <c r="E239" s="25">
-        <v>-7.64</v>
+        <v>-7.63</v>
       </c>
       <c r="F239" s="25">
-        <v>-3.58</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-3.56</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="10">
         <v>44275</v>
       </c>
@@ -5233,59 +5233,59 @@
         <v>97.8</v>
       </c>
       <c r="C240" s="25">
-        <v>0.03</v>
+        <v>0.15</v>
       </c>
       <c r="D240" s="25">
-        <v>0.16</v>
+        <v>0.67</v>
       </c>
       <c r="E240" s="25">
-        <v>-3.72</v>
+        <v>-3.71</v>
       </c>
       <c r="F240" s="25">
-        <v>4.16</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="10">
         <v>44300</v>
       </c>
       <c r="B241" s="25">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="C241" s="25">
-        <v>2.6</v>
+        <v>2.83</v>
       </c>
       <c r="D241" s="25">
-        <v>1.46</v>
+        <v>2.73</v>
       </c>
       <c r="E241" s="25">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F241" s="25">
-        <v>4.24</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="10">
         <v>44325</v>
       </c>
       <c r="B242" s="25">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="C242" s="25">
-        <v>4.18</v>
+        <v>4.49</v>
       </c>
       <c r="D242" s="25">
-        <v>3.23</v>
+        <v>2.94</v>
       </c>
       <c r="E242" s="25">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="F242" s="25">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="10">
         <v>44350</v>
       </c>
@@ -5296,16 +5296,16 @@
         <v>8.76</v>
       </c>
       <c r="D243" s="25">
-        <v>5.16</v>
+        <v>5.36</v>
       </c>
       <c r="E243" s="25">
-        <v>7.4</v>
+        <v>7.42</v>
       </c>
       <c r="F243" s="25">
-        <v>18.57</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18.579999999999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="10">
         <v>44404</v>
       </c>
@@ -5316,16 +5316,16 @@
         <v>16.47</v>
       </c>
       <c r="D244" s="25">
-        <v>2.66</v>
+        <v>2.57</v>
       </c>
       <c r="E244" s="25">
-        <v>9.89</v>
+        <v>9.91</v>
       </c>
       <c r="F244" s="25">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="10">
         <v>44433</v>
       </c>
@@ -5333,19 +5333,19 @@
         <v>103.5</v>
       </c>
       <c r="C245" s="25">
-        <v>14.2</v>
+        <v>14.17</v>
       </c>
       <c r="D245" s="25">
-        <v>6.02</v>
+        <v>6.07</v>
       </c>
       <c r="E245" s="25">
-        <v>7.92</v>
+        <v>7.93</v>
       </c>
       <c r="F245" s="25">
-        <v>15.76</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15.78</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="10">
         <v>44462</v>
       </c>
@@ -5353,39 +5353,39 @@
         <v>104.2</v>
       </c>
       <c r="C246" s="25">
-        <v>13.4</v>
+        <v>13.36</v>
       </c>
       <c r="D246" s="25">
-        <v>9.36</v>
+        <v>9.33</v>
       </c>
       <c r="E246" s="25">
-        <v>7.85</v>
+        <v>7.87</v>
       </c>
       <c r="F246" s="25">
-        <v>18.25</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18.260000000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="10">
         <v>44491</v>
       </c>
       <c r="B247" s="22">
-        <v>103.7</v>
+        <v>103.6</v>
       </c>
       <c r="C247" s="24">
-        <v>13.4</v>
+        <v>13.36</v>
       </c>
       <c r="D247" s="25">
-        <v>7.41</v>
+        <v>7.31</v>
       </c>
       <c r="E247" s="25">
-        <v>9.15</v>
+        <v>9.06</v>
       </c>
       <c r="F247" s="25">
-        <v>16.059999999999999</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15.94</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="10">
         <v>44520</v>
       </c>
@@ -5393,39 +5393,39 @@
         <v>103.9</v>
       </c>
       <c r="C248" s="24">
-        <v>14.78</v>
+        <v>14.7</v>
       </c>
       <c r="D248" s="25">
-        <v>14.65</v>
+        <v>14.41</v>
       </c>
       <c r="E248" s="25">
-        <v>8.51</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="F248" s="25">
-        <v>15.73</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="10">
         <v>44549</v>
       </c>
       <c r="B249" s="25">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="C249" s="25">
-        <v>16.850000000000001</v>
+        <v>16.64</v>
       </c>
       <c r="D249" s="25">
-        <v>9.27</v>
+        <v>9.14</v>
       </c>
       <c r="E249" s="25">
-        <v>6.47</v>
+        <v>6.49</v>
       </c>
       <c r="F249" s="25">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="10">
         <v>44562</v>
       </c>
@@ -5433,19 +5433,19 @@
         <v>102.5</v>
       </c>
       <c r="C250" s="25">
-        <v>18.38</v>
+        <v>18.18</v>
       </c>
       <c r="D250" s="25">
-        <v>6.6</v>
+        <v>6.39</v>
       </c>
       <c r="E250" s="25">
-        <v>5.44</v>
+        <v>5.45</v>
       </c>
       <c r="F250" s="25">
-        <v>10.65</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="10">
         <v>44616</v>
       </c>
@@ -5453,19 +5453,19 @@
         <v>104.3</v>
       </c>
       <c r="C251" s="25">
-        <v>20.85</v>
+        <v>20.71</v>
       </c>
       <c r="D251" s="25">
-        <v>8.6999999999999993</v>
+        <v>7.43</v>
       </c>
       <c r="E251" s="25">
-        <v>8.36</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="F251" s="25">
-        <v>15.42</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15.44</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="10">
         <v>44629</v>
       </c>
@@ -5473,70 +5473,100 @@
         <v>102.1</v>
       </c>
       <c r="C252" s="25">
-        <v>11.08</v>
+        <v>11.22</v>
       </c>
       <c r="D252" s="25">
-        <v>3.53</v>
+        <v>4.08</v>
       </c>
       <c r="E252" s="25">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="F252" s="25">
-        <v>13.16</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.17</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="10">
         <v>44652</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B253" s="22">
+        <v>102.8</v>
+      </c>
+      <c r="C253" s="25">
+        <v>6.93</v>
+      </c>
+      <c r="D253" s="25">
+        <v>3.11</v>
+      </c>
+      <c r="E253" s="25">
+        <v>4.29</v>
+      </c>
+      <c r="F253" s="25">
+        <v>17.260000000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="10">
         <v>44705</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B254" s="22">
+        <v>104</v>
+      </c>
+      <c r="C254" s="14">
+        <v>11.7</v>
+      </c>
+      <c r="D254" s="25">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="E254" s="25">
+        <v>2.46</v>
+      </c>
+      <c r="F254" s="25">
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="10">
         <v>44721</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="10">
         <v>44743</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="10">
         <v>44797</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="10">
         <v>44805</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="10">
         <v>44835</v>
       </c>
       <c r="B259" s="10"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="10">
         <v>44889</v>
       </c>
       <c r="B260" s="10"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="10">
         <v>44904</v>
       </c>
       <c r="B261" s="10"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B262" s="10"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B263" s="10"/>
     </row>
   </sheetData>
